--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_780.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_780.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32607-d6510508-Reviews-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-TownePlace-Suites-By-Marriott-Lancaster.h8120015.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_780.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_780.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1302 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r572134040-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>6510508</t>
+  </si>
+  <si>
+    <t>572134040</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Family Time</t>
+  </si>
+  <si>
+    <t>Great place. Friendly staff. Rooms were great. Rented the 2 bedroom suite, each room has it's own air unit and this was so helpful with our crew. Full kitchen with dishes, and dishwasher. Looks like an apartment. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Great place. Friendly staff. Rooms were great. Rented the 2 bedroom suite, each room has it's own air unit and this was so helpful with our crew. Full kitchen with dishes, and dishwasher. Looks like an apartment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r565288359-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>565288359</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here last year and were super surprised at how great this place is. Returning a year later we were still quite impressed.The staff is super friendly, the rooms are great and kept in wonderful condition. The breakfast was varied and tasty.Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here last year and were super surprised at how great this place is. Returning a year later we were still quite impressed.The staff is super friendly, the rooms are great and kept in wonderful condition. The breakfast was varied and tasty.Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r553263377-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>553263377</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>One night stay on way to Mammoth, exceeded expectations</t>
+  </si>
+  <si>
+    <t>Our family of four plus the dog stayed here for a quick one-night visit on the way to Mammoth. We were very pleasantly surprised. We usually stay at Residence Inn's since they are dog-friendly...we had never stayed at a TownePlace Suites but this one looked pretty new!  We were surprised at the size of the room, the exceptional kitchenette, the pleasant lighting, etc. We were able to stay here for free with 10,000 Marriott points. Breakfast was also very good. Staff were friendly. I would definitely stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Our family of four plus the dog stayed here for a quick one-night visit on the way to Mammoth. We were very pleasantly surprised. We usually stay at Residence Inn's since they are dog-friendly...we had never stayed at a TownePlace Suites but this one looked pretty new!  We were surprised at the size of the room, the exceptional kitchenette, the pleasant lighting, etc. We were able to stay here for free with 10,000 Marriott points. Breakfast was also very good. Staff were friendly. I would definitely stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r518368223-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>518368223</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations (Four Month Stay)</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for four months on business. The staff was extremely pleasant and caring. Throughout the year, I stay in A LOT of hotels. With my civilian employer and with the military (guard), I am constantly on the road. It was nice to be around a staff of people that took the time to listen and at least consider, any needs that I may have had. However, the staff went above and beyond, without asking for the consideration (needs). Thanks for such a pleasant four month stay. Also, the staff helped make my birthday a wonderful day, with a surprise gift. Thanks so much. Do stay if you get a chance; customer service still exist!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for four months on business. The staff was extremely pleasant and caring. Throughout the year, I stay in A LOT of hotels. With my civilian employer and with the military (guard), I am constantly on the road. It was nice to be around a staff of people that took the time to listen and at least consider, any needs that I may have had. However, the staff went above and beyond, without asking for the consideration (needs). Thanks for such a pleasant four month stay. Also, the staff helped make my birthday a wonderful day, with a surprise gift. Thanks so much. Do stay if you get a chance; customer service still exist!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r515734250-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>515734250</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>An A+ For Customer Service</t>
+  </si>
+  <si>
+    <t>My family stayed in this property for two weeks.  This is a fairly new hotel which appears to cater on extended stays.Property is very clean and all the staff I have encountered are all friendly and eager to please.  I mean this from the front desk people, the breakfast ladies, the housekeepers and the maintenance man!Everything that I would consider as "wrong" really can't be helped by these awesome staff. 1.  Property is literally right next to the freeway.  The noise level from the vehicles are sometimes difficult to tolerate.  My husband who usually is asleep as soon as his head hits a pillow lost some night of sleep.2.  Pet friendly but there really isn't greenery to walk the dogs in.  Their landscaping consist of rocks/pebbles.I walked my dogs in the open lot right behind the property.  Problem is that area seems to be a hangout for the homeless people where they eat their meals.  My dogs had almost eaten chicken bones which is very very bad for them.  I know this is not the hotel's responsibility but I want the reader to be aware of this danger to their pets.3.  The property is in a strip mall.  An empty one!  There is only the japanese restaurant there.4.  The pool us truly small!!5.  Breakfast could use a bit of variety.Overall I give it 4 stars.  It meets my standard of cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>My family stayed in this property for two weeks.  This is a fairly new hotel which appears to cater on extended stays.Property is very clean and all the staff I have encountered are all friendly and eager to please.  I mean this from the front desk people, the breakfast ladies, the housekeepers and the maintenance man!Everything that I would consider as "wrong" really can't be helped by these awesome staff. 1.  Property is literally right next to the freeway.  The noise level from the vehicles are sometimes difficult to tolerate.  My husband who usually is asleep as soon as his head hits a pillow lost some night of sleep.2.  Pet friendly but there really isn't greenery to walk the dogs in.  Their landscaping consist of rocks/pebbles.I walked my dogs in the open lot right behind the property.  Problem is that area seems to be a hangout for the homeless people where they eat their meals.  My dogs had almost eaten chicken bones which is very very bad for them.  I know this is not the hotel's responsibility but I want the reader to be aware of this danger to their pets.3.  The property is in a strip mall.  An empty one!  There is only the japanese restaurant there.4.  The pool us truly small!!5.  Breakfast could use a bit of variety.Overall I give it 4 stars.  It meets my standard of cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r498614736-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>498614736</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and Clean!</t>
+  </si>
+  <si>
+    <t>Loved my stay, got a disability access room. Everyone at hotel was awesome - appreciated the morning breakfast - thanks for all the kindness and all the details you looked after, all the special touches!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Loved my stay, got a disability access room. Everyone at hotel was awesome - appreciated the morning breakfast - thanks for all the kindness and all the details you looked after, all the special touches!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r473022032-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>473022032</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Good, And Maybe the Nicest in Lancaster?</t>
+  </si>
+  <si>
+    <t>This hotel is perfectly nice, and well-maintained. The staff are friendly. It even has a small pool right next to the parking lot.That said, it's a chain hotel next to the highway in Lancaster. If Lancaster has a downtown, this hotel might be somewhere close.Basically, this is a pretty nice place to spend the night and leave, if you're staying in Lancaster and are willing to spend a little extra for a chain hotel that's a little nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is perfectly nice, and well-maintained. The staff are friendly. It even has a small pool right next to the parking lot.That said, it's a chain hotel next to the highway in Lancaster. If Lancaster has a downtown, this hotel might be somewhere close.Basically, this is a pretty nice place to spend the night and leave, if you're staying in Lancaster and are willing to spend a little extra for a chain hotel that's a little nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r472143937-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>472143937</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>One Star Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is located right at the highway entrance. As a result, it is highly noisy. There is no isolation at all. It felt like I am sleeping in the street as I was able to hear all the noise from the cars in the highway. I was unable to sleep. The breakfast is not all that. pool very small. I will not return to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is located right at the highway entrance. As a result, it is highly noisy. There is no isolation at all. It felt like I am sleeping in the street as I was able to hear all the noise from the cars in the highway. I was unable to sleep. The breakfast is not all that. pool very small. I will not return to this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r471479398-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471479398</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a week for the LA County air show.  It is a very nice place with good beds, great pillows, and good showers.  The breakfast was very good and the breakfast lady is GREAT!  The room also had plenty of outlets for charging my devices, a nice kitchenette, and a large desk/table.  When I go back to Lancaster, I hope to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a week for the LA County air show.  It is a very nice place with good beds, great pillows, and good showers.  The breakfast was very good and the breakfast lady is GREAT!  The room also had plenty of outlets for charging my devices, a nice kitchenette, and a large desk/table.  When I go back to Lancaster, I hope to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r468167771-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>468167771</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Our Usual Pick</t>
+  </si>
+  <si>
+    <t>When we are in the Lancaster area to visit family this is our usual place to stay.  Staff is nice, breakfast is great and the lady who takes care of the breakfast area (forgot her name) is ALWAYS gracious and accommodating.  The rooms are spacious and clean, that's why we keep coming back hereMoreShow less</t>
+  </si>
+  <si>
+    <t>When we are in the Lancaster area to visit family this is our usual place to stay.  Staff is nice, breakfast is great and the lady who takes care of the breakfast area (forgot her name) is ALWAYS gracious and accommodating.  The rooms are spacious and clean, that's why we keep coming back hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r465086138-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>465086138</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Stayed here for one night travelling through but would gladly stay here again...this is a great property.In excellent condition, very nice rooms...spacious, clean, well decorated and designed.Good streaming capable WIFI (for free), decent exercise room, good shower and good breakfast.Overall a great spot...feels like it's brand new.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for one night travelling through but would gladly stay here again...this is a great property.In excellent condition, very nice rooms...spacious, clean, well decorated and designed.Good streaming capable WIFI (for free), decent exercise room, good shower and good breakfast.Overall a great spot...feels like it's brand new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r457242919-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>457242919</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff:)</t>
+  </si>
+  <si>
+    <t>Staff is super friendly. We were greeted by a friendly staff member who gave each of my co-workers a goody bag. The goody bag served us well, since we had not eaten and were very hungry from our trip. Also, the lady who is in charge of the breakfast was very helpful and friendly. She helped me twice with personal issues with no hesitation. She greeted us every morning with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Staff is super friendly. We were greeted by a friendly staff member who gave each of my co-workers a goody bag. The goody bag served us well, since we had not eaten and were very hungry from our trip. Also, the lady who is in charge of the breakfast was very helpful and friendly. She helped me twice with personal issues with no hesitation. She greeted us every morning with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r454798070-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>454798070</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay..great people</t>
+  </si>
+  <si>
+    <t>I stayed with my family for 4 days at this facility and it was a great time, People gentle and always willing to help . Hotel is clean, new and room is comfortable and well equipped. Used the laundry and gym and both worked perfectly. Breakfast is great . When back will stay theregreat placeMoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed with my family for 4 days at this facility and it was a great time, People gentle and always willing to help . Hotel is clean, new and room is comfortable and well equipped. Used the laundry and gym and both worked perfectly. Breakfast is great . When back will stay theregreat placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r453204400-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>453204400</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>One of the cleanest and well managed Marriotts I have been to!</t>
+  </si>
+  <si>
+    <t>I commute between San Jose and Southern California.I leave after work on a Friday and sometimes I don't have the "gas" to drive the full distance.I selected this hotel because of it's reasonable pricing.Marriott's quality is always good/consistent, but this property was well maintained and clean!This will always be my "go to" place when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I commute between San Jose and Southern California.I leave after work on a Friday and sometimes I don't have the "gas" to drive the full distance.I selected this hotel because of it's reasonable pricing.Marriott's quality is always good/consistent, but this property was well maintained and clean!This will always be my "go to" place when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r452910186-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>452910186</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Nice place with a nice price</t>
+  </si>
+  <si>
+    <t>While searching various brands in the Lancaster area, I stumbled upon this Marriott brand hotel and decided to take chance based on the ratings.    The place met our expectations for the price but nothing to really knock my socks off.     The room was new and clean with basic decor.  Nothing on the fancy style and you can tell they threw this place up on the cheap.  Check in was slow as there was only one person checking folks in and there was 5 of us waiting to get our rooms but he did the best he can but wasn't flustered.    The beds were decent but not the upscale Marriott beds I have had in the past. The room was clean and the only problem was that mold start to form on the shower curtains.   Most hotels don't train their staff to leave them open to dry out and often you find them bunched up which is mold heaven. We skipped breakfast since we were short on time but it looked ok.  Basically reheated items that you can throw together a sandwich or have a bowl of cereal.  The area around the hotel didn't have many dining options so you may want to stop beforehand if you are hungry.   There was one place that appeared to have just opened (Red Salmon) and it was  Japenese type place but wasn't open while we there to check it out.MoreShow less</t>
+  </si>
+  <si>
+    <t>While searching various brands in the Lancaster area, I stumbled upon this Marriott brand hotel and decided to take chance based on the ratings.    The place met our expectations for the price but nothing to really knock my socks off.     The room was new and clean with basic decor.  Nothing on the fancy style and you can tell they threw this place up on the cheap.  Check in was slow as there was only one person checking folks in and there was 5 of us waiting to get our rooms but he did the best he can but wasn't flustered.    The beds were decent but not the upscale Marriott beds I have had in the past. The room was clean and the only problem was that mold start to form on the shower curtains.   Most hotels don't train their staff to leave them open to dry out and often you find them bunched up which is mold heaven. We skipped breakfast since we were short on time but it looked ok.  Basically reheated items that you can throw together a sandwich or have a bowl of cereal.  The area around the hotel didn't have many dining options so you may want to stop beforehand if you are hungry.   There was one place that appeared to have just opened (Red Salmon) and it was  Japenese type place but wasn't open while we there to check it out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r450173696-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>450173696</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quiet, friendly </t>
+  </si>
+  <si>
+    <t>Nice place. Very useable kitchenette &amp; sitting area in my one queen bed room.  Friendly staff.  I got a room facing away from the freeway, and it was quiet.  Plenty of protein for breakfast, not just cereal and bagels like so many places.  I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Nice place. Very useable kitchenette &amp; sitting area in my one queen bed room.  Friendly staff.  I got a room facing away from the freeway, and it was quiet.  Plenty of protein for breakfast, not just cereal and bagels like so many places.  I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r446805798-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>446805798</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Christmas Vacation</t>
+  </si>
+  <si>
+    <t>Overall this is a fantastic spot to stay for individuals visiting the area, especially if you want to prepare your own food or need an extended stay. The bed was very cozy, this is a dog friendly hotel ($100 additional fee for length of stay), and outside there is a location to get poop bags to clean up after your dog. There is a large undeveloped lot next to hotel &amp; if a dog is well behaved it is a relatively good spot to let your dog take a run in the morning. We requested easy access to an exit door to take our dog potty as needed &amp; had a first floor room very near exit door (very appreciated). Kitchenette is great &amp; met several guests that were there long-term for various reasons. Gas fire located in complimentary hot breakfast area; great heat in winter time &amp; decorative with Christmas tree. Star deducted for slightly wore down carpet; had loose carpet threads, but this would not be a deterrent from me staying again. Other strange issue is the room set-up is awkward if you want to use the couch bed. When the couch bed is open it touches the room bed &amp; for someone sleeping on the opposite side of the bathroom they have to climb over a bed to get to the restroom &amp; exit. If not using the couch bed then set-up is fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Overall this is a fantastic spot to stay for individuals visiting the area, especially if you want to prepare your own food or need an extended stay. The bed was very cozy, this is a dog friendly hotel ($100 additional fee for length of stay), and outside there is a location to get poop bags to clean up after your dog. There is a large undeveloped lot next to hotel &amp; if a dog is well behaved it is a relatively good spot to let your dog take a run in the morning. We requested easy access to an exit door to take our dog potty as needed &amp; had a first floor room very near exit door (very appreciated). Kitchenette is great &amp; met several guests that were there long-term for various reasons. Gas fire located in complimentary hot breakfast area; great heat in winter time &amp; decorative with Christmas tree. Star deducted for slightly wore down carpet; had loose carpet threads, but this would not be a deterrent from me staying again. Other strange issue is the room set-up is awkward if you want to use the couch bed. When the couch bed is open it touches the room bed &amp; for someone sleeping on the opposite side of the bathroom they have to climb over a bed to get to the restroom &amp; exit. If not using the couch bed then set-up is fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r443840110-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>443840110</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>We really enjoyed this hotel, The rooms were beautiful, The decorating was bright and crisp and the beds were comfortable,The staff were all very friendly. We especially liked that there was veggie "sausage" at breakfast for the vegetarians in our group. They were so delighted and surprised!We put this hotel on our list of "places to return to" when we next visit California.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>We really enjoyed this hotel, The rooms were beautiful, The decorating was bright and crisp and the beds were comfortable,The staff were all very friendly. We especially liked that there was veggie "sausage" at breakfast for the vegetarians in our group. They were so delighted and surprised!We put this hotel on our list of "places to return to" when we next visit California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r441355248-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>441355248</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Great place for a race weekend!</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights in the beginning of November, while my dad and I raced at Willow Springs Raceway. The accommodations were great! The beds were comfortable, the hotel was clean and the breakfast was warm and tasty. There were places around the hotel area to get food and drinks, but we didn't have time to fully explore the surrounding areas. We will definitely be staying here again during our next race weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights in the beginning of November, while my dad and I raced at Willow Springs Raceway. The accommodations were great! The beds were comfortable, the hotel was clean and the breakfast was warm and tasty. There were places around the hotel area to get food and drinks, but we didn't have time to fully explore the surrounding areas. We will definitely be staying here again during our next race weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r441349060-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>441349060</t>
+  </si>
+  <si>
+    <t>Great Hotel for only one night or an extended stay</t>
+  </si>
+  <si>
+    <t>I felt very accommodating at this hotel. The staff was very friendly and welcoming. I stayed in a king bed studio and I enjoyed the nice home feel of the room. The room was very clean and well put together. I liked how if I wanted to buy groceries and cook, all the tools i needed were right there in the room. I only stayed there two nights on business, but the parking situation was comfortable. I would recommend this hotel to everyone. Definitely ranks among the best in the Antelope Valley area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I felt very accommodating at this hotel. The staff was very friendly and welcoming. I stayed in a king bed studio and I enjoyed the nice home feel of the room. The room was very clean and well put together. I liked how if I wanted to buy groceries and cook, all the tools i needed were right there in the room. I only stayed there two nights on business, but the parking situation was comfortable. I would recommend this hotel to everyone. Definitely ranks among the best in the Antelope Valley area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r441021143-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>441021143</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Clean and feels like new</t>
+  </si>
+  <si>
+    <t>I stayed at this location for 1 night in early November 2016. I arrived around 1AM and the front door was locked (which is good for safety of the guests). I pressed the bell, after ~1 minute someone came to the front desk. I like the quick service of checking in and out. There was plenty of parking and I like that they did not charge for parking. The room was clean and everything seems like new (such has furniture, exterior, interior, etc.). The area was quiet. Overall, it was an enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this location for 1 night in early November 2016. I arrived around 1AM and the front door was locked (which is good for safety of the guests). I pressed the bell, after ~1 minute someone came to the front desk. I like the quick service of checking in and out. There was plenty of parking and I like that they did not charge for parking. The room was clean and everything seems like new (such has furniture, exterior, interior, etc.). The area was quiet. Overall, it was an enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r439826642-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>439826642</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>A great place to stay; a great team</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for five nights ending tomorrow, November 25. Though it is just off SR 14 and our room was next to the elevator, the room was very quiet with drapes that cut out the light at night. The breakfast was great with oatmeal, fruit, eggs, ham &amp; sausage, bagels, muffins, juices, etc. Our room was spacious (one separate bedroom) with a couch, chair, and full kitchen. Of all the good things, the staff team is exceptional and most important to me. Donna, Asst. General Manager, was near the front desk, was very warm, very personable. Clara, the breakfast person, works her heart out and is also warm and welcoming. Brandon, evening front desk staff member, is a gentleman--courteous, kind, helpful-wonderful manner. All staff impressed me as loving their work and the guests as well. We stayed five nights and loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for five nights ending tomorrow, November 25. Though it is just off SR 14 and our room was next to the elevator, the room was very quiet with drapes that cut out the light at night. The breakfast was great with oatmeal, fruit, eggs, ham &amp; sausage, bagels, muffins, juices, etc. Our room was spacious (one separate bedroom) with a couch, chair, and full kitchen. Of all the good things, the staff team is exceptional and most important to me. Donna, Asst. General Manager, was near the front desk, was very warm, very personable. Clara, the breakfast person, works her heart out and is also warm and welcoming. Brandon, evening front desk staff member, is a gentleman--courteous, kind, helpful-wonderful manner. All staff impressed me as loving their work and the guests as well. We stayed five nights and loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r437286175-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>437286175</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Thank you !</t>
+  </si>
+  <si>
+    <t>We stayed here since this was one of the hotels that were on the stay to play list for a softball tournament this past weekend.  We were disappointed that prior to checking in we called to request for early check ins for a few of our rooms. We arrived into lax at 5 am and got to the hotel by 11a.  Check in isn't till 4:00 pm which is I think a little late. After we checked in the rooms were nice and clean. And parking is very good here. It is located in a convenient location, and close to the mall and restaurants.  The pool is small, but the laundromat is great, and cost effective. Overall, we had a good experience here but think some of the day staff can be a bit friendlier. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed here since this was one of the hotels that were on the stay to play list for a softball tournament this past weekend.  We were disappointed that prior to checking in we called to request for early check ins for a few of our rooms. We arrived into lax at 5 am and got to the hotel by 11a.  Check in isn't till 4:00 pm which is I think a little late. After we checked in the rooms were nice and clean. And parking is very good here. It is located in a convenient location, and close to the mall and restaurants.  The pool is small, but the laundromat is great, and cost effective. Overall, we had a good experience here but think some of the day staff can be a bit friendlier. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r437196035-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>437196035</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We always choose to stay at Towne Place Suites when visiting our family in Lancaster. The rooms are big and we love having a kitchenette!  Each room also has a nice desk area and great closet space!  We think it is the best value around.  The breakfasts are good and the staff is extremely accomodating.  The pool area is outside and there is even a grill and patio that guests can use for get-togethers.  All in all, a great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We always choose to stay at Towne Place Suites when visiting our family in Lancaster. The rooms are big and we love having a kitchenette!  Each room also has a nice desk area and great closet space!  We think it is the best value around.  The breakfasts are good and the staff is extremely accomodating.  The pool area is outside and there is even a grill and patio that guests can use for get-togethers.  All in all, a great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r435718723-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>435718723</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>My Very favorable visit at Towne Place Suites</t>
+  </si>
+  <si>
+    <t>My Husband and I are working in the Lancaster area and stay at the Towne PlaceSuites weekly. Our stay has been extremely pleasant from the beautiful room full of all amenities anyone could want to the free breakfast and cordial staff. I would recommend Towne Place Suites to anyone on business or a family vacation. It is delightful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>My Husband and I are working in the Lancaster area and stay at the Towne PlaceSuites weekly. Our stay has been extremely pleasant from the beautiful room full of all amenities anyone could want to the free breakfast and cordial staff. I would recommend Towne Place Suites to anyone on business or a family vacation. It is delightful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r435710165-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>435710165</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>The Towneplace Suites Lancaster is a very clean and modern hotel. I stayed there on the way back from a trip to the Sierras. It has all the amenities- pool, gym, outdoor seating areas, laundry. For breakfast, I had scrambled eggs, sausage, muffin, and orange juice. The room is a true suite with kitchenette and modern furniture and lighting. Friendly front desk and helpful staff. Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Towneplace Suites Lancaster is a very clean and modern hotel. I stayed there on the way back from a trip to the Sierras. It has all the amenities- pool, gym, outdoor seating areas, laundry. For breakfast, I had scrambled eggs, sausage, muffin, and orange juice. The room is a true suite with kitchenette and modern furniture and lighting. Friendly front desk and helpful staff. Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r428991604-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>428991604</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>A Very Pleasant Stay</t>
+  </si>
+  <si>
+    <t>From a friendly greeting during check-in through quick and efficient check-out, the entire stay was quite pleasant.  Room amenities included a kitchenette with outsized refrigerator, dishes, silverware, and pull-out couch just to name a few.  The property appeared to be freshly remodeled.  I've stayed at numerous Marriott properties over the years but never a TownePlace Suite.  If this property is the standard, I'll definitely seek this brand out in the future, very good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>From a friendly greeting during check-in through quick and efficient check-out, the entire stay was quite pleasant.  Room amenities included a kitchenette with outsized refrigerator, dishes, silverware, and pull-out couch just to name a few.  The property appeared to be freshly remodeled.  I've stayed at numerous Marriott properties over the years but never a TownePlace Suite.  If this property is the standard, I'll definitely seek this brand out in the future, very good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r427094543-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>427094543</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great location &amp; super clean</t>
+  </si>
+  <si>
+    <t>I stayed 5 nights at Town place Suites Lancaster &amp; enjoyed the clean &amp; well maintained property. The staff is very nice. The breakfast area had a good space and I will stay here again. I stay at Marriott properties and this is one I would recommend for comfort and the ease to locate. w mount 976811927MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>I stayed 5 nights at Town place Suites Lancaster &amp; enjoyed the clean &amp; well maintained property. The staff is very nice. The breakfast area had a good space and I will stay here again. I stay at Marriott properties and this is one I would recommend for comfort and the ease to locate. w mount 976811927More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r426979616-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>426979616</t>
+  </si>
+  <si>
+    <t>Great Hotel and Service</t>
+  </si>
+  <si>
+    <t>The folks here greeted you with a smile and were very quick to get you checked in and answer any questions you have.  The lady who checked me in offered ideas and places for dinner.  I also received a phone call once in my room asking if everything was alright.MoreShow less</t>
+  </si>
+  <si>
+    <t>The folks here greeted you with a smile and were very quick to get you checked in and answer any questions you have.  The lady who checked me in offered ideas and places for dinner.  I also received a phone call once in my room asking if everything was alright.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r425040561-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>425040561</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Solid place to stay</t>
+  </si>
+  <si>
+    <t>This is a fairly new property.  Our room was nice and clean with lots of space.  Good desktop work area.  Industrial strength air conditioning, needed on a hot autumn night.  Breakfast was standard fare - continental plus fried and hard boiled eggs and sausage.The property is right next to a busy freeway.  For the most part there wasn't much noticeable noise, but every now and then when a truck went by you could hear the engine noise.The only restaurant within walking distance is a Japanese place.  We stuck our heads in and left immediately.  Within a 10 minute drive there is a retail area that had a couple of decent places to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>This is a fairly new property.  Our room was nice and clean with lots of space.  Good desktop work area.  Industrial strength air conditioning, needed on a hot autumn night.  Breakfast was standard fare - continental plus fried and hard boiled eggs and sausage.The property is right next to a busy freeway.  For the most part there wasn't much noticeable noise, but every now and then when a truck went by you could hear the engine noise.The only restaurant within walking distance is a Japanese place.  We stuck our heads in and left immediately.  Within a 10 minute drive there is a retail area that had a couple of decent places to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r420559843-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>420559843</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Super clean</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay. The hotel was very clean and all staff friendly. The breakfast was fresh and plenty of seating. The room was roomy and the smell was pleasant. The hotel is well taken care of. We enjoyed the pool and the gym.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay. The hotel was very clean and all staff friendly. The breakfast was fresh and plenty of seating. The room was roomy and the smell was pleasant. The hotel is well taken care of. We enjoyed the pool and the gym.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r420471273-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>420471273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Value </t>
+  </si>
+  <si>
+    <t>Fresh and clean. Small unit but I quite enjoyed as it was well planned, excellent layout. All Staff I encountered were quite friendly .I travel 80-100 nites annually. I plan on staying here again in Nov..MoreShow less</t>
+  </si>
+  <si>
+    <t>Fresh and clean. Small unit but I quite enjoyed as it was well planned, excellent layout. All Staff I encountered were quite friendly .I travel 80-100 nites annually. I plan on staying here again in Nov..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r420330417-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>420330417</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Booked 2 rooms</t>
+  </si>
+  <si>
+    <t>Rooms were great, first day we were put in 1st floor due to hotel being full. but next day when we requested to be shifted to higher floor it was quickly accommodated.Only Cons would be that breakfast had limited options and closes early around 9.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms were great, first day we were put in 1st floor due to hotel being full. but next day when we requested to be shifted to higher floor it was quickly accommodated.Only Cons would be that breakfast had limited options and closes early around 9.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r419014777-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>419014777</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and I would have given it 5 stars except</t>
+  </si>
+  <si>
+    <t>The free internet is slow.  I speed tested it and it was 3-4 mbps.  You can purchase faster internet for $4 or $5 per day (sorry don't remember).  Unless you need to be in the area, it will be a bit of a drive to get to LA's typical main attractions.  Universal Studios was the main reason I went to LA and it was about a 1 hr drive to get there.  New hotel (started May, 2015 I think), huge room (with small kitchen), clean, friendly staff and good breakfast.  I used Marriott points and it was incredible value.Location can't be helped.  If it wasn't for the slow internet, I would have given hotel 5 out of 5.New strip is being built across from hotel.  Only business open is a sushi restaurant.  Outlets at Tejon is about 1 hr drive to the north.If you need to be in the area and don't mind the location, this is a great hotel to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The free internet is slow.  I speed tested it and it was 3-4 mbps.  You can purchase faster internet for $4 or $5 per day (sorry don't remember).  Unless you need to be in the area, it will be a bit of a drive to get to LA's typical main attractions.  Universal Studios was the main reason I went to LA and it was about a 1 hr drive to get there.  New hotel (started May, 2015 I think), huge room (with small kitchen), clean, friendly staff and good breakfast.  I used Marriott points and it was incredible value.Location can't be helped.  If it wasn't for the slow internet, I would have given hotel 5 out of 5.New strip is being built across from hotel.  Only business open is a sushi restaurant.  Outlets at Tejon is about 1 hr drive to the north.If you need to be in the area and don't mind the location, this is a great hotel to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r415034319-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>415034319</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>"Suite" is a stretch - but the service is pleasant</t>
+  </si>
+  <si>
+    <t>The TownePlace Suites is simply a poor-man's Residence Inn. There is a "kitchen" in the foyer as you enter the otherwise-standard sized hotel room. Interestingly, the closet is in the bathroom. The room was clean, amply stocked and most importantly, the service was friendly. As we were only there for 8 hours, we didn't get to sample the breakfast, but I will say that the clerk was engaged enough to let us know that if we would be leaving after 4:30 AM, that there would be to-go items available. (Alas, with a 7:00 AM flight out of LAX, we couldn't stay until 4:30). It was certainly fine for our purposes - driving a dog to a foster in Lancaster, then flying right home to Hawaii. I can't imagine that it would be as appealing for a longer stay. This seems to be the Marriott answer to the Hilton Home-2-Suites brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>The TownePlace Suites is simply a poor-man's Residence Inn. There is a "kitchen" in the foyer as you enter the otherwise-standard sized hotel room. Interestingly, the closet is in the bathroom. The room was clean, amply stocked and most importantly, the service was friendly. As we were only there for 8 hours, we didn't get to sample the breakfast, but I will say that the clerk was engaged enough to let us know that if we would be leaving after 4:30 AM, that there would be to-go items available. (Alas, with a 7:00 AM flight out of LAX, we couldn't stay until 4:30). It was certainly fine for our purposes - driving a dog to a foster in Lancaster, then flying right home to Hawaii. I can't imagine that it would be as appealing for a longer stay. This seems to be the Marriott answer to the Hilton Home-2-Suites brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r413654120-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>413654120</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Very welcoming and pleasant stay</t>
+  </si>
+  <si>
+    <t>This is a nice quaint hotel if you're in the Palmdale area.  It is new (built in 2014) so it still looks and feels new.  The staff was very welcoming and friendly.  The rooms were clean, comfortable and everything was in working order.  We really liked the outdoor barbeque area.  Breakfast in the morning was great and this is a hotel I would certainly stay at again in the future when I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice quaint hotel if you're in the Palmdale area.  It is new (built in 2014) so it still looks and feels new.  The staff was very welcoming and friendly.  The rooms were clean, comfortable and everything was in working order.  We really liked the outdoor barbeque area.  Breakfast in the morning was great and this is a hotel I would certainly stay at again in the future when I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r406867074-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>406867074</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new and the rooms therefore are in excellent condition.  We had a double Queen which was fairly large with its own kitchenette including full size fridge freezer.  All the staff we meet were friendly and welcoming.  Breakfast was better than expected and comprised cereal, oatmeal, fruit, waffles, breads, muffins, bagles, boiled eggs.  Hot items included pork and vegetarian sausage, Canadian Bacon and fried eggs.    There is a Japanese restaurant adjacent to the hotel car park and several fast food joints and a Walmart within a 5 min drive. We stayed here on a Marriott redemption rate and would have no hesitation booking this hotel again when in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new and the rooms therefore are in excellent condition.  We had a double Queen which was fairly large with its own kitchenette including full size fridge freezer.  All the staff we meet were friendly and welcoming.  Breakfast was better than expected and comprised cereal, oatmeal, fruit, waffles, breads, muffins, bagles, boiled eggs.  Hot items included pork and vegetarian sausage, Canadian Bacon and fried eggs.    There is a Japanese restaurant adjacent to the hotel car park and several fast food joints and a Walmart within a 5 min drive. We stayed here on a Marriott redemption rate and would have no hesitation booking this hotel again when in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r403872336-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>403872336</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comforts of Home While on the Road </t>
+  </si>
+  <si>
+    <t>It's great to have accommodations like home while traveling for work. The full kitchen - even a dishwasher! - saved me a ton of money by not eating out every day. The bbq area near the pool is a nice touch, too. Great breakfast in the lobby, &amp; the staff was very helpful. One gentleman helped me find a route to go for a run; he even had maps printed out. I will definitely stay here again next time I'm in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>It's great to have accommodations like home while traveling for work. The full kitchen - even a dishwasher! - saved me a ton of money by not eating out every day. The bbq area near the pool is a nice touch, too. Great breakfast in the lobby, &amp; the staff was very helpful. One gentleman helped me find a route to go for a run; he even had maps printed out. I will definitely stay here again next time I'm in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r403054713-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>403054713</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Likely the best hotel closest to Edwards, AFB.</t>
+  </si>
+  <si>
+    <t>This hotel is in great shape top to bottom and has everything you need.  The staff is friendly and helpful and there is a great Japanese restaurant in the same parking lot.The large desk in my room is perfect.  I want one for my house.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in great shape top to bottom and has everything you need.  The staff is friendly and helpful and there is a great Japanese restaurant in the same parking lot.The large desk in my room is perfect.  I want one for my house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r373524085-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>373524085</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>We stayed here in May while visiting family members in the area. It was truly our home away from home. Isabella was efficient in checking us in and everyone was so friendly. The bed is absolutely comfy and for us the room was noise free and it was dark for a good night sleep. Breakfast in the morning is quick food, fried eggs, sausage patties, bagels and toast...but good. We will definitely stay again when visiting family in Lancaster. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here in May while visiting family members in the area. It was truly our home away from home. Isabella was efficient in checking us in and everyone was so friendly. The bed is absolutely comfy and for us the room was noise free and it was dark for a good night sleep. Breakfast in the morning is quick food, fried eggs, sausage patties, bagels and toast...but good. We will definitely stay again when visiting family in Lancaster. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r370015818-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>370015818</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here on a California road trip. We were tired after a 6 hour drive and booked here using points. We weren't expecting much since it was a cat 1 Marriott property and our first time in a Towneplace Suites, but it was surprisingly very accommodating. Free breakfast and parking included make this very good value when redeeming points. I would also stay if the rates aren't that high.Only think I did not like is the isolated handicapped room we received on the first room. The hotel was sold out that night, but gold members should be prioritized over standard guests, even when booking with points. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r358778572-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>358778572</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Decent Stay In Lancaster</t>
+  </si>
+  <si>
+    <t>This was our first time at a Town Place Suites and overall I enjoyed the set up.  Our studio room was quite spacious with two queen beds, a sofa and a small kitchen. The bathroom was a decent size and had a huge closet!I would have liked to have had a few more dishes in the kitchen  (there was exactly 4 of of everything). There were 4 of us and we were constantly needing to wash dishes!  Also, they didn't have wine glasses which would have been nice. Breakfast was okay with fried eggs (kind of rubbery), sausages, breads and waffles. coffee wasn't the best. The breakfast attendant was really friendly and would bring out more food if they were out,  you just need to ask. I should always note that the breakafast room was really nice.They had a nice outside patio with a fireplace and two high end grills which we used a couple of time and appreciated. Being in California we were anxious to use the pool,  it was probably the most disappointing aspect of the trip.  The pool was quite small and right next to the parking lot, the addition of some plants would make wonders for the atmosphere.  Although heated, it was pretty darn chilly in March.  There's just the pool, not the hot tub. Over all I liked this property and would certainly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Michelle M, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded April 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2016</t>
+  </si>
+  <si>
+    <t>This was our first time at a Town Place Suites and overall I enjoyed the set up.  Our studio room was quite spacious with two queen beds, a sofa and a small kitchen. The bathroom was a decent size and had a huge closet!I would have liked to have had a few more dishes in the kitchen  (there was exactly 4 of of everything). There were 4 of us and we were constantly needing to wash dishes!  Also, they didn't have wine glasses which would have been nice. Breakfast was okay with fried eggs (kind of rubbery), sausages, breads and waffles. coffee wasn't the best. The breakfast attendant was really friendly and would bring out more food if they were out,  you just need to ask. I should always note that the breakafast room was really nice.They had a nice outside patio with a fireplace and two high end grills which we used a couple of time and appreciated. Being in California we were anxious to use the pool,  it was probably the most disappointing aspect of the trip.  The pool was quite small and right next to the parking lot, the addition of some plants would make wonders for the atmosphere.  Although heated, it was pretty darn chilly in March.  There's just the pool, not the hot tub. Over all I liked this property and would certainly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r335312109-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>335312109</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Outstanding people work here.</t>
+  </si>
+  <si>
+    <t>This is a new property with small but very well designed rooms.  We stayed Christmas night and was greeted by a very helpful young man.  He was able to answer our many questions about the area and gave us great directions.  The next morning the young lady working the front desk went into the breakfast area asking if anyone needed anything.  I had never seen anyone in a hotel do this and I think everyone appreciated it.I can tell they have a very good employee in her.  Even the housekeeping staff spoke to us in a very friendly manor.I have spent over 75 nights in hotels this year and I think overall the personel here are the best I have encountered.Nice breakfast including turkey sausage and eggs.  Good coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>This is a new property with small but very well designed rooms.  We stayed Christmas night and was greeted by a very helpful young man.  He was able to answer our many questions about the area and gave us great directions.  The next morning the young lady working the front desk went into the breakfast area asking if anyone needed anything.  I had never seen anyone in a hotel do this and I think everyone appreciated it.I can tell they have a very good employee in her.  Even the housekeeping staff spoke to us in a very friendly manor.I have spent over 75 nights in hotels this year and I think overall the personel here are the best I have encountered.Nice breakfast including turkey sausage and eggs.  Good coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r333533326-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>333533326</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Awesome Place To Stay</t>
+  </si>
+  <si>
+    <t>We recently visited family in Lancaster and stayed, for a second time, at TownePlace Suites Lancaster.  It is, by far, the best value for your money.  I would even say that you get more amenities for your money.  The Suites are equipped better than any other Brand Name Suites we have stayed in the past.  We had a 2 bed Queen suite with a sofa bed, a mini kitchen with refrigerator, dishwasher, and a 2 burner stovetop, microwave, and a garbage disposal. They serve breakfast from 5:00am to 9:00am during week and there are a variety of foods.  Also Ms Claire, who prepare food, is the sweetest and nicest person you could ever meet.  She will make sure you have enough to eat.  The Front Desk staff is very friendly.  Always willing to help.  The Housekeeping staff is outstanding.  Our Suite was always cleaned to perfection.  We never had a problem in that area.  The Ladies work hard to make sure your Suite is as though the first day you walked in.  I could go on and on, but running out of space.  We have nicknamed TownePlace Suites, "Our Home Away From Home".MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy R, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded December 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2015</t>
+  </si>
+  <si>
+    <t>We recently visited family in Lancaster and stayed, for a second time, at TownePlace Suites Lancaster.  It is, by far, the best value for your money.  I would even say that you get more amenities for your money.  The Suites are equipped better than any other Brand Name Suites we have stayed in the past.  We had a 2 bed Queen suite with a sofa bed, a mini kitchen with refrigerator, dishwasher, and a 2 burner stovetop, microwave, and a garbage disposal. They serve breakfast from 5:00am to 9:00am during week and there are a variety of foods.  Also Ms Claire, who prepare food, is the sweetest and nicest person you could ever meet.  She will make sure you have enough to eat.  The Front Desk staff is very friendly.  Always willing to help.  The Housekeeping staff is outstanding.  Our Suite was always cleaned to perfection.  We never had a problem in that area.  The Ladies work hard to make sure your Suite is as though the first day you walked in.  I could go on and on, but running out of space.  We have nicknamed TownePlace Suites, "Our Home Away From Home".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r323742253-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>323742253</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Accommodations for a couple of nights  </t>
+  </si>
+  <si>
+    <t>We were there for my kids sporting events and they were very accommodating with our requests! The rooms were above average in size and clean and having Direct TV as their cable service was pretty cool also. The staff were really nice and would stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Randy R, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>We were there for my kids sporting events and they were very accommodating with our requests! The rooms were above average in size and clean and having Direct TV as their cable service was pretty cool also. The staff were really nice and would stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r299352612-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>299352612</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>This is now my favorite in Lancaster, CA. The hotel  with all its amenities is exceptional. The BBQ and sitting area was most comfortable and the pool incredible. Staff is very pleasant and helpful. Now, about the bed, pillows and towels!? Marriott quality! The best. Overall my 2 nights at this location were incredible.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Randy R, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>This is now my favorite in Lancaster, CA. The hotel  with all its amenities is exceptional. The BBQ and sitting area was most comfortable and the pool incredible. Staff is very pleasant and helpful. Now, about the bed, pillows and towels!? Marriott quality! The best. Overall my 2 nights at this location were incredible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r290163801-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>290163801</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Well Managed, New Property with Friendly and Caring Staff!</t>
+  </si>
+  <si>
+    <t>I travel 50% of the time for business and am very selective when it comes to choosing a hotel.  I check Trip Advisor reviews and research hotels before deciding to book my stay.  I also typically stay loyal to another brand of hotels, but have had some good experiences with newer Marriott branded properties.  So, I decided I would try the TownePlace Suites in Lancaster since it was a new propery, I liked the photos, and it had good reviews.
+I had an excellent stay during both of my trips to Lancaster in June.  The room was modern, neat, and quiet, and the staff members were very welcoming and friendly.  I wanted to cook on the exceptionally clean gas grills when I was there but didn't have a chance to do so.  However, several other guests were cooking steaks and they smelled delicious!  
+I had a medical issue during my second week at the hotel and the GM, Randy, offered to drive me to the ER at 5:30 in the morning.  Luckily all was OK, but I had to cut my trip short.   About a week after I was home Manager Michelle emailed me saying she and Randy were both thinking of me and hoped everything was going well.  Randy and Michelle run not only a new and clean property but also one where people actually CARE and are kind.  I appreciated their concern both while I was there and...I travel 50% of the time for business and am very selective when it comes to choosing a hotel.  I check Trip Advisor reviews and research hotels before deciding to book my stay.  I also typically stay loyal to another brand of hotels, but have had some good experiences with newer Marriott branded properties.  So, I decided I would try the TownePlace Suites in Lancaster since it was a new propery, I liked the photos, and it had good reviews.I had an excellent stay during both of my trips to Lancaster in June.  The room was modern, neat, and quiet, and the staff members were very welcoming and friendly.  I wanted to cook on the exceptionally clean gas grills when I was there but didn't have a chance to do so.  However, several other guests were cooking steaks and they smelled delicious!  I had a medical issue during my second week at the hotel and the GM, Randy, offered to drive me to the ER at 5:30 in the morning.  Luckily all was OK, but I had to cut my trip short.   About a week after I was home Manager Michelle emailed me saying she and Randy were both thinking of me and hoped everything was going well.  Randy and Michelle run not only a new and clean property but also one where people actually CARE and are kind.  I appreciated their concern both while I was there and after I arrived home in Colorado.The TownePlace Suites in Lancaster is the only place to stay if you find yourself having to venture over to the desert areas of Palmdale and Lancaster.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Randy R, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>I travel 50% of the time for business and am very selective when it comes to choosing a hotel.  I check Trip Advisor reviews and research hotels before deciding to book my stay.  I also typically stay loyal to another brand of hotels, but have had some good experiences with newer Marriott branded properties.  So, I decided I would try the TownePlace Suites in Lancaster since it was a new propery, I liked the photos, and it had good reviews.
+I had an excellent stay during both of my trips to Lancaster in June.  The room was modern, neat, and quiet, and the staff members were very welcoming and friendly.  I wanted to cook on the exceptionally clean gas grills when I was there but didn't have a chance to do so.  However, several other guests were cooking steaks and they smelled delicious!  
+I had a medical issue during my second week at the hotel and the GM, Randy, offered to drive me to the ER at 5:30 in the morning.  Luckily all was OK, but I had to cut my trip short.   About a week after I was home Manager Michelle emailed me saying she and Randy were both thinking of me and hoped everything was going well.  Randy and Michelle run not only a new and clean property but also one where people actually CARE and are kind.  I appreciated their concern both while I was there and...I travel 50% of the time for business and am very selective when it comes to choosing a hotel.  I check Trip Advisor reviews and research hotels before deciding to book my stay.  I also typically stay loyal to another brand of hotels, but have had some good experiences with newer Marriott branded properties.  So, I decided I would try the TownePlace Suites in Lancaster since it was a new propery, I liked the photos, and it had good reviews.I had an excellent stay during both of my trips to Lancaster in June.  The room was modern, neat, and quiet, and the staff members were very welcoming and friendly.  I wanted to cook on the exceptionally clean gas grills when I was there but didn't have a chance to do so.  However, several other guests were cooking steaks and they smelled delicious!  I had a medical issue during my second week at the hotel and the GM, Randy, offered to drive me to the ER at 5:30 in the morning.  Luckily all was OK, but I had to cut my trip short.   About a week after I was home Manager Michelle emailed me saying she and Randy were both thinking of me and hoped everything was going well.  Randy and Michelle run not only a new and clean property but also one where people actually CARE and are kind.  I appreciated their concern both while I was there and after I arrived home in Colorado.The TownePlace Suites in Lancaster is the only place to stay if you find yourself having to venture over to the desert areas of Palmdale and Lancaster.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r285118529-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>285118529</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Comfort in the desert for business men or families!</t>
+  </si>
+  <si>
+    <t>Out in the Mojave Desert, the town of Lancaster, CA offers a very comfortable hotel. Townplace Suites, a Marriott property, seems designed for business men, but would be great for a family. The rooms are large with two queens, a couch, a dining table, and a fully equipped kitchen. The staff is terrific and always helpful! The pool and workout room are convenient. Definitely two thumbs up!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Randy R, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded July 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2015</t>
+  </si>
+  <si>
+    <t>Out in the Mojave Desert, the town of Lancaster, CA offers a very comfortable hotel. Townplace Suites, a Marriott property, seems designed for business men, but would be great for a family. The rooms are large with two queens, a couch, a dining table, and a fully equipped kitchen. The staff is terrific and always helpful! The pool and workout room are convenient. Definitely two thumbs up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r267465569-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>267465569</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Staff more than helpfull</t>
+  </si>
+  <si>
+    <t>I felt compelled to write this review after I read the review of george h on april 21. I too was in town for a soccer tournament and stayed at the towneplace suites. The staff at the hotel were incredibly friendly and couldn't be more helpful. After watching one individual, who in my opinion was george h after reading his review, scream at and totally belittle the front desk staff due to the fact his room type was changed, the front desk staff was incredible handling the individual's situation in a calm and professional manner. I watched as the man and who I could only assume was his wife, embarrassed themselves as well as their children with their display at the front desk, while the whole time the staff tried their hardest to explain what happened and why it happened, the two would not allow the staff one second to speak. I recognize this situation due to the fact that the man constantly used the term bait and switch with the staff, which is the term george h used in his review as well as the fact that he made sure everyone in the lobby was aware he would be posting his review on every website he could find. Had I been a staff member, I'm not sure I could have remained as cool headed as they did, especially with the personal attacks and insults being used. As a frequent...I felt compelled to write this review after I read the review of george h on april 21. I too was in town for a soccer tournament and stayed at the towneplace suites. The staff at the hotel were incredibly friendly and couldn't be more helpful. After watching one individual, who in my opinion was george h after reading his review, scream at and totally belittle the front desk staff due to the fact his room type was changed, the front desk staff was incredible handling the individual's situation in a calm and professional manner. I watched as the man and who I could only assume was his wife, embarrassed themselves as well as their children with their display at the front desk, while the whole time the staff tried their hardest to explain what happened and why it happened, the two would not allow the staff one second to speak. I recognize this situation due to the fact that the man constantly used the term bait and switch with the staff, which is the term george h used in his review as well as the fact that he made sure everyone in the lobby was aware he would be posting his review on every website he could find. Had I been a staff member, I'm not sure I could have remained as cool headed as they did, especially with the personal attacks and insults being used. As a frequent traveler, I too have had rooms I reserved changed upon my arrival. I realize this is part of the hotel business, and it sure isn't bait and switch. It's just like being bumped from a flight by an airline, while I agree it can be upsetting, it is not a life and death situation. It is a hotel room, and nothing more. If I was that unhappy with a hotel, I pray I would be mature enough to simply leave the hotel and make alternate arrangements.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Shandra  G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>I felt compelled to write this review after I read the review of george h on april 21. I too was in town for a soccer tournament and stayed at the towneplace suites. The staff at the hotel were incredibly friendly and couldn't be more helpful. After watching one individual, who in my opinion was george h after reading his review, scream at and totally belittle the front desk staff due to the fact his room type was changed, the front desk staff was incredible handling the individual's situation in a calm and professional manner. I watched as the man and who I could only assume was his wife, embarrassed themselves as well as their children with their display at the front desk, while the whole time the staff tried their hardest to explain what happened and why it happened, the two would not allow the staff one second to speak. I recognize this situation due to the fact that the man constantly used the term bait and switch with the staff, which is the term george h used in his review as well as the fact that he made sure everyone in the lobby was aware he would be posting his review on every website he could find. Had I been a staff member, I'm not sure I could have remained as cool headed as they did, especially with the personal attacks and insults being used. As a frequent...I felt compelled to write this review after I read the review of george h on april 21. I too was in town for a soccer tournament and stayed at the towneplace suites. The staff at the hotel were incredibly friendly and couldn't be more helpful. After watching one individual, who in my opinion was george h after reading his review, scream at and totally belittle the front desk staff due to the fact his room type was changed, the front desk staff was incredible handling the individual's situation in a calm and professional manner. I watched as the man and who I could only assume was his wife, embarrassed themselves as well as their children with their display at the front desk, while the whole time the staff tried their hardest to explain what happened and why it happened, the two would not allow the staff one second to speak. I recognize this situation due to the fact that the man constantly used the term bait and switch with the staff, which is the term george h used in his review as well as the fact that he made sure everyone in the lobby was aware he would be posting his review on every website he could find. Had I been a staff member, I'm not sure I could have remained as cool headed as they did, especially with the personal attacks and insults being used. As a frequent traveler, I too have had rooms I reserved changed upon my arrival. I realize this is part of the hotel business, and it sure isn't bait and switch. It's just like being bumped from a flight by an airline, while I agree it can be upsetting, it is not a life and death situation. It is a hotel room, and nothing more. If I was that unhappy with a hotel, I pray I would be mature enough to simply leave the hotel and make alternate arrangements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r267031410-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>267031410</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Bait and Switch</t>
+  </si>
+  <si>
+    <t>My family of four booked a two bedroom suite for a soccer tournament.  Prior to our arrival the sales manager changes our reservation to a studio without telling us.  The clerk did not inform us of the change at check in.  We had to wait until we trekked our luggage to the room.  The assistant manager was no help at all.  To make matters worse, the assistant manager told us we had a one bedroom.  It wasn't ---our receipt clearly shows that we had a studio.  The assistant manager at first told us there were other rooms, but when we asked for one she said No.  She did give us a $10 break off the price for a studio.  By the way, the hotel website said that the maximum occupancy for our room was three --we were four.The staff of this hotel doesn't understand how to run the hotel.  This was a bait and switch,  pure and simple.  If you can't count on a reservation - you can't count on the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family of four booked a two bedroom suite for a soccer tournament.  Prior to our arrival the sales manager changes our reservation to a studio without telling us.  The clerk did not inform us of the change at check in.  We had to wait until we trekked our luggage to the room.  The assistant manager was no help at all.  To make matters worse, the assistant manager told us we had a one bedroom.  It wasn't ---our receipt clearly shows that we had a studio.  The assistant manager at first told us there were other rooms, but when we asked for one she said No.  She did give us a $10 break off the price for a studio.  By the way, the hotel website said that the maximum occupancy for our room was three --we were four.The staff of this hotel doesn't understand how to run the hotel.  This was a bait and switch,  pure and simple.  If you can't count on a reservation - you can't count on the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r262235720-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>262235720</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Best place in Lancaster</t>
+  </si>
+  <si>
+    <t>The employee who checked us in was great!  When I walked in he said, "I just made your keys!"  Fantastic!  Took me less than 5 mins at the counter. Rooms are spacious - the room with 2 queens is bigger than the room with the king bed. LOVE the mini kitchen - it has an actual full size refrigerator!  This is a good stop over hotel. Small pool, no hot tub/ jacuzzi.  Not a resort destination but I don't believe that was the plan from the design.  Clean, new, conveniently located off of the freeway.  Paul Mitchell products are a nice touch. We are here for a soccer tournament and we will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Randy R, General Manager at TownePlace Suites Lancaster, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>The employee who checked us in was great!  When I walked in he said, "I just made your keys!"  Fantastic!  Took me less than 5 mins at the counter. Rooms are spacious - the room with 2 queens is bigger than the room with the king bed. LOVE the mini kitchen - it has an actual full size refrigerator!  This is a good stop over hotel. Small pool, no hot tub/ jacuzzi.  Not a resort destination but I don't believe that was the plan from the design.  Clean, new, conveniently located off of the freeway.  Paul Mitchell products are a nice touch. We are here for a soccer tournament and we will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r239405324-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>239405324</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Great place!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I loved it here.  We were comfortable and the entire staff was great!!  The complimentary breakfast was great. Housekeeping was nice and family friendly. The front desk staff was very attentive and caring. We will definitely stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r232310732-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>232310732</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Nice new hotel in Lancaster</t>
+  </si>
+  <si>
+    <t>New hotel...need I say more?  I stayed here on business for a few days and really enjoyed my visit.  This hotel is just off Hwy 14 with easy access to Palmdale, Edwards AFB and other locations both north and south.  I found the rooms to be quite nice with a great desk area, a small kitchen and really nice HD Direct TV.  My only concern was no luggage rack in the room which causes you to place your suitcase on the floor or on the sofa and I'm not sure why they would want guests to place dirty luggage anywhere but on a luggage rack.  The breakfast and coffee were great and the staff was friendly, overall it is a nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>New hotel...need I say more?  I stayed here on business for a few days and really enjoyed my visit.  This hotel is just off Hwy 14 with easy access to Palmdale, Edwards AFB and other locations both north and south.  I found the rooms to be quite nice with a great desk area, a small kitchen and really nice HD Direct TV.  My only concern was no luggage rack in the room which causes you to place your suitcase on the floor or on the sofa and I'm not sure why they would want guests to place dirty luggage anywhere but on a luggage rack.  The breakfast and coffee were great and the staff was friendly, overall it is a nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r227925892-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>227925892</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>One of the best Hotels in Antelope Valley</t>
+  </si>
+  <si>
+    <t>I was there for the grand opening in August and it was so great, had no issues and all the workers were wonderful.  They did a wonderful job.  The maintenance of the grounds keeper was amazing and the pool was kept up.  The workers do know their jobs.  Great</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r211181497-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>211181497</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Brand new and awesome!!!!  4.75/5.00!</t>
+  </si>
+  <si>
+    <t>I was able to extend a business trip in Orange County into a weekend trip spending time with my Dad and stepmom in Lancaster, CA and was very excited to have booked this brand new hotel that opened May 20, 2014!  Excellent property with outstanding employees.  I stayed in the studio king (see the attached photos).  There are several reasons why this place is excellent:
+1. The place smells brand new....even better than a new car!
+2. All of the clerks I've run into are super friendly and eager to please; their excellent service outweighs some of the inconveniences of a new place such as some things not working properly (like the front door key card lock late at night).
+3. Primo showers and sinks with excellent water pressure and temperature.
+4. Brand new appliances and an adequately stocked kitchen (whatever they do not have the clerks will provide for you).
+5. Brand new StarTrac workout equipment in their gym and a brand-new and crystal clear pool.
+6. Excellent lighting from the rooms to the lobby and check in area.
+7. Firm beds, beautiful pillows and excellent work desk.
+8. Diverse staff from the maids to the clerks.
+9. Right next to the 14 freeway and a stones throw from eating areas around the Palmdale Mall.
+10.Personal communique's are a real plus; I slept through the maid service on purpose but they were kind enough to not only call and...I was able to extend a business trip in Orange County into a weekend trip spending time with my Dad and stepmom in Lancaster, CA and was very excited to have booked this brand new hotel that opened May 20, 2014!  Excellent property with outstanding employees.  I stayed in the studio king (see the attached photos).  There are several reasons why this place is excellent:1. The place smells brand new....even better than a new car!2. All of the clerks I've run into are super friendly and eager to please; their excellent service outweighs some of the inconveniences of a new place such as some things not working properly (like the front door key card lock late at night).3. Primo showers and sinks with excellent water pressure and temperature.4. Brand new appliances and an adequately stocked kitchen (whatever they do not have the clerks will provide for you).5. Brand new StarTrac workout equipment in their gym and a brand-new and crystal clear pool.6. Excellent lighting from the rooms to the lobby and check in area.7. Firm beds, beautiful pillows and excellent work desk.8. Diverse staff from the maids to the clerks.9. Right next to the 14 freeway and a stones throw from eating areas around the Palmdale Mall.10.Personal communique's are a real plus; I slept through the maid service on purpose but they were kind enough to not only call and notify me about why the room was not cleaned but left a note.  Nice touch and I've stayed at enough places (many Choice Hotels for example) that  don't bother to communicate with guests in instances like this.11.Less expensive than all the Marriott properties that tend to be overpriced here in the Antelope Valley (Springhill Suites [Lancaster], Residence Inn [Palmdale], Courtyard [Palmdale]).Very small drawbacks (the elevator is super-duper slow &amp; the kitchen sink drains super duper slowly).Enjoy the photos, this will be my go to place provided they stay price competitive with the other Marriott properties in the area, the Hampton Inn in Palmdale, and the very nice Holiday Inn Properties in Palmdale.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I was able to extend a business trip in Orange County into a weekend trip spending time with my Dad and stepmom in Lancaster, CA and was very excited to have booked this brand new hotel that opened May 20, 2014!  Excellent property with outstanding employees.  I stayed in the studio king (see the attached photos).  There are several reasons why this place is excellent:
+1. The place smells brand new....even better than a new car!
+2. All of the clerks I've run into are super friendly and eager to please; their excellent service outweighs some of the inconveniences of a new place such as some things not working properly (like the front door key card lock late at night).
+3. Primo showers and sinks with excellent water pressure and temperature.
+4. Brand new appliances and an adequately stocked kitchen (whatever they do not have the clerks will provide for you).
+5. Brand new StarTrac workout equipment in their gym and a brand-new and crystal clear pool.
+6. Excellent lighting from the rooms to the lobby and check in area.
+7. Firm beds, beautiful pillows and excellent work desk.
+8. Diverse staff from the maids to the clerks.
+9. Right next to the 14 freeway and a stones throw from eating areas around the Palmdale Mall.
+10.Personal communique's are a real plus; I slept through the maid service on purpose but they were kind enough to not only call and...I was able to extend a business trip in Orange County into a weekend trip spending time with my Dad and stepmom in Lancaster, CA and was very excited to have booked this brand new hotel that opened May 20, 2014!  Excellent property with outstanding employees.  I stayed in the studio king (see the attached photos).  There are several reasons why this place is excellent:1. The place smells brand new....even better than a new car!2. All of the clerks I've run into are super friendly and eager to please; their excellent service outweighs some of the inconveniences of a new place such as some things not working properly (like the front door key card lock late at night).3. Primo showers and sinks with excellent water pressure and temperature.4. Brand new appliances and an adequately stocked kitchen (whatever they do not have the clerks will provide for you).5. Brand new StarTrac workout equipment in their gym and a brand-new and crystal clear pool.6. Excellent lighting from the rooms to the lobby and check in area.7. Firm beds, beautiful pillows and excellent work desk.8. Diverse staff from the maids to the clerks.9. Right next to the 14 freeway and a stones throw from eating areas around the Palmdale Mall.10.Personal communique's are a real plus; I slept through the maid service on purpose but they were kind enough to not only call and notify me about why the room was not cleaned but left a note.  Nice touch and I've stayed at enough places (many Choice Hotels for example) that  don't bother to communicate with guests in instances like this.11.Less expensive than all the Marriott properties that tend to be overpriced here in the Antelope Valley (Springhill Suites [Lancaster], Residence Inn [Palmdale], Courtyard [Palmdale]).Very small drawbacks (the elevator is super-duper slow &amp; the kitchen sink drains super duper slowly).Enjoy the photos, this will be my go to place provided they stay price competitive with the other Marriott properties in the area, the Hampton Inn in Palmdale, and the very nice Holiday Inn Properties in Palmdale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r209940485-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>209940485</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>For a Brand new Hotel.....</t>
+  </si>
+  <si>
+    <t>I will admit first off that I am very hotel picky. I typically stay at a competitor but they were sold out. First...the staff at check in seemed very frazzled when there was more than 2 people standing in line to check in. The room was strangely situated and with no luggage bench it greatly reduced the size of the already small couch in the room. The bed was heavenly and I loved the pillows. The bathroom was fine, other than the ugly spider that crawled across my feet one morning. The only other thing I can say is I did notice the windows still had a lot of "construction" dirt on them but the gal who was attending breakfast in the morning was over the top nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shandra G, Director of Sales at TownePlace Suites Lancaster, responded to this reviewResponded June 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2014</t>
+  </si>
+  <si>
+    <t>I will admit first off that I am very hotel picky. I typically stay at a competitor but they were sold out. First...the staff at check in seemed very frazzled when there was more than 2 people standing in line to check in. The room was strangely situated and with no luggage bench it greatly reduced the size of the already small couch in the room. The bed was heavenly and I loved the pillows. The bathroom was fine, other than the ugly spider that crawled across my feet one morning. The only other thing I can say is I did notice the windows still had a lot of "construction" dirt on them but the gal who was attending breakfast in the morning was over the top nice.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1944,3602 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>195</v>
+      </c>
+      <c r="X21" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>284</v>
+      </c>
+      <c r="X34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="X35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>284</v>
+      </c>
+      <c r="X37" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>284</v>
+      </c>
+      <c r="X38" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>284</v>
+      </c>
+      <c r="X39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>284</v>
+      </c>
+      <c r="X40" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>341</v>
+      </c>
+      <c r="X41" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>350</v>
+      </c>
+      <c r="J43" t="s">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>354</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>355</v>
+      </c>
+      <c r="X43" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" t="s">
+        <v>360</v>
+      </c>
+      <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>364</v>
+      </c>
+      <c r="X44" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>363</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>372</v>
+      </c>
+      <c r="X45" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>380</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>381</v>
+      </c>
+      <c r="X46" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>384</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>385</v>
+      </c>
+      <c r="J47" t="s">
+        <v>386</v>
+      </c>
+      <c r="K47" t="s">
+        <v>387</v>
+      </c>
+      <c r="L47" t="s">
+        <v>388</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>389</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>398</v>
+      </c>
+      <c r="O48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>399</v>
+      </c>
+      <c r="X48" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>408</v>
+      </c>
+      <c r="X49" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>417</v>
+      </c>
+      <c r="X50" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" t="s">
+        <v>429</v>
+      </c>
+      <c r="L52" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>431</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>432</v>
+      </c>
+      <c r="X52" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="J53" t="s">
+        <v>437</v>
+      </c>
+      <c r="K53" t="s">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>82</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+      <c r="J55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" t="s">
+        <v>450</v>
+      </c>
+      <c r="L55" t="s">
+        <v>451</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>453</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" t="s">
+        <v>455</v>
+      </c>
+      <c r="K56" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56" t="s">
+        <v>457</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>458</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62896</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>465</v>
+      </c>
+      <c r="X57" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_780.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_780.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="522">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>nikkiforney</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Great place. Friendly staff. Rooms were great. Rented the 2 bedroom suite, each room has it's own air unit and this was so helpful with our crew. Full kitchen with dishes, and dishwasher. Looks like an apartment. More</t>
   </si>
   <si>
+    <t>mrt1955</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r565288359-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We stayed here last year and were super surprised at how great this place is. Returning a year later we were still quite impressed.The staff is super friendly, the rooms are great and kept in wonderful condition. The breakfast was varied and tasty.Highly recommended!More</t>
   </si>
   <si>
+    <t>JulienMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r553263377-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Our family of four plus the dog stayed here for a quick one-night visit on the way to Mammoth. We were very pleasantly surprised. We usually stay at Residence Inn's since they are dog-friendly...we had never stayed at a TownePlace Suites but this one looked pretty new!  We were surprised at the size of the room, the exceptional kitchenette, the pleasant lighting, etc. We were able to stay here for free with 10,000 Marriott points. Breakfast was also very good. Staff were friendly. I would definitely stay here again if in the area.More</t>
   </si>
   <si>
+    <t>587aliciad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r518368223-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Stayed in this hotel for four months on business. The staff was extremely pleasant and caring. Throughout the year, I stay in A LOT of hotels. With my civilian employer and with the military (guard), I am constantly on the road. It was nice to be around a staff of people that took the time to listen and at least consider, any needs that I may have had. However, the staff went above and beyond, without asking for the consideration (needs). Thanks for such a pleasant four month stay. Also, the staff helped make my birthday a wonderful day, with a surprise gift. Thanks so much. Do stay if you get a chance; customer service still exist!!!More</t>
   </si>
   <si>
+    <t>experiencecollector</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r515734250-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>My family stayed in this property for two weeks.  This is a fairly new hotel which appears to cater on extended stays.Property is very clean and all the staff I have encountered are all friendly and eager to please.  I mean this from the front desk people, the breakfast ladies, the housekeepers and the maintenance man!Everything that I would consider as "wrong" really can't be helped by these awesome staff. 1.  Property is literally right next to the freeway.  The noise level from the vehicles are sometimes difficult to tolerate.  My husband who usually is asleep as soon as his head hits a pillow lost some night of sleep.2.  Pet friendly but there really isn't greenery to walk the dogs in.  Their landscaping consist of rocks/pebbles.I walked my dogs in the open lot right behind the property.  Problem is that area seems to be a hangout for the homeless people where they eat their meals.  My dogs had almost eaten chicken bones which is very very bad for them.  I know this is not the hotel's responsibility but I want the reader to be aware of this danger to their pets.3.  The property is in a strip mall.  An empty one!  There is only the japanese restaurant there.4.  The pool us truly small!!5.  Breakfast could use a bit of variety.Overall I give it 4 stars.  It meets my standard of cleanliness.More</t>
   </si>
   <si>
+    <t>SarahInLB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r498614736-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Loved my stay, got a disability access room. Everyone at hotel was awesome - appreciated the morning breakfast - thanks for all the kindness and all the details you looked after, all the special touches!More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r473022032-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>This hotel is perfectly nice, and well-maintained. The staff are friendly. It even has a small pool right next to the parking lot.That said, it's a chain hotel next to the highway in Lancaster. If Lancaster has a downtown, this hotel might be somewhere close.Basically, this is a pretty nice place to spend the night and leave, if you're staying in Lancaster and are willing to spend a little extra for a chain hotel that's a little nicer.More</t>
   </si>
   <si>
+    <t>Mazin s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r472143937-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>The hotel is located right at the highway entrance. As a result, it is highly noisy. There is no isolation at all. It felt like I am sleeping in the street as I was able to hear all the noise from the cars in the highway. I was unable to sleep. The breakfast is not all that. pool very small. I will not return to this property.More</t>
   </si>
   <si>
+    <t>FlyinSOB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r471479398-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>I stayed here for a week for the LA County air show.  It is a very nice place with good beds, great pillows, and good showers.  The breakfast was very good and the breakfast lady is GREAT!  The room also had plenty of outlets for charging my devices, a nice kitchenette, and a large desk/table.  When I go back to Lancaster, I hope to stay there again.More</t>
   </si>
   <si>
+    <t>partners1989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r468167771-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -441,6 +471,9 @@
     <t>Stayed here for one night travelling through but would gladly stay here again...this is a great property.In excellent condition, very nice rooms...spacious, clean, well decorated and designed.Good streaming capable WIFI (for free), decent exercise room, good shower and good breakfast.Overall a great spot...feels like it's brand new.More</t>
   </si>
   <si>
+    <t>Lenny W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r457242919-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -468,6 +501,9 @@
     <t>Staff is super friendly. We were greeted by a friendly staff member who gave each of my co-workers a goody bag. The goody bag served us well, since we had not eaten and were very hungry from our trip. Also, the lady who is in charge of the breakfast was very helpful and friendly. She helped me twice with personal issues with no hesitation. She greeted us every morning with a smile.More</t>
   </si>
   <si>
+    <t>Paulo-Vita_1962</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r454798070-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -492,6 +528,9 @@
     <t>I stayed with my family for 4 days at this facility and it was a great time, People gentle and always willing to help . Hotel is clean, new and room is comfortable and well equipped. Used the laundry and gym and both worked perfectly. Breakfast is great . When back will stay theregreat placeMore</t>
   </si>
   <si>
+    <t>dknow23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r453204400-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -519,6 +558,9 @@
     <t>I commute between San Jose and Southern California.I leave after work on a Friday and sometimes I don't have the "gas" to drive the full distance.I selected this hotel because of it's reasonable pricing.Marriott's quality is always good/consistent, but this property was well maintained and clean!This will always be my "go to" place when in the area.More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r452910186-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -537,6 +579,9 @@
     <t>While searching various brands in the Lancaster area, I stumbled upon this Marriott brand hotel and decided to take chance based on the ratings.    The place met our expectations for the price but nothing to really knock my socks off.     The room was new and clean with basic decor.  Nothing on the fancy style and you can tell they threw this place up on the cheap.  Check in was slow as there was only one person checking folks in and there was 5 of us waiting to get our rooms but he did the best he can but wasn't flustered.    The beds were decent but not the upscale Marriott beds I have had in the past. The room was clean and the only problem was that mold start to form on the shower curtains.   Most hotels don't train their staff to leave them open to dry out and often you find them bunched up which is mold heaven. We skipped breakfast since we were short on time but it looked ok.  Basically reheated items that you can throw together a sandwich or have a bowl of cereal.  The area around the hotel didn't have many dining options so you may want to stop beforehand if you are hungry.   There was one place that appeared to have just opened (Red Salmon) and it was  Japenese type place but wasn't open while we there to check it out.More</t>
   </si>
   <si>
+    <t>BSPL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r450173696-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -561,6 +606,9 @@
     <t>Nice place. Very useable kitchenette &amp; sitting area in my one queen bed room.  Friendly staff.  I got a room facing away from the freeway, and it was quiet.  Plenty of protein for breakfast, not just cereal and bagels like so many places.  I'd stay here again.More</t>
   </si>
   <si>
+    <t>DashCatt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r446805798-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -585,6 +633,9 @@
     <t>Overall this is a fantastic spot to stay for individuals visiting the area, especially if you want to prepare your own food or need an extended stay. The bed was very cozy, this is a dog friendly hotel ($100 additional fee for length of stay), and outside there is a location to get poop bags to clean up after your dog. There is a large undeveloped lot next to hotel &amp; if a dog is well behaved it is a relatively good spot to let your dog take a run in the morning. We requested easy access to an exit door to take our dog potty as needed &amp; had a first floor room very near exit door (very appreciated). Kitchenette is great &amp; met several guests that were there long-term for various reasons. Gas fire located in complimentary hot breakfast area; great heat in winter time &amp; decorative with Christmas tree. Star deducted for slightly wore down carpet; had loose carpet threads, but this would not be a deterrent from me staying again. Other strange issue is the room set-up is awkward if you want to use the couch bed. When the couch bed is open it touches the room bed &amp; for someone sleeping on the opposite side of the bathroom they have to climb over a bed to get to the restroom &amp; exit. If not using the couch bed then set-up is fine. More</t>
   </si>
   <si>
+    <t>Doris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r443840110-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -612,6 +663,9 @@
     <t>We really enjoyed this hotel, The rooms were beautiful, The decorating was bright and crisp and the beds were comfortable,The staff were all very friendly. We especially liked that there was veggie "sausage" at breakfast for the vegetarians in our group. They were so delighted and surprised!We put this hotel on our list of "places to return to" when we next visit California.More</t>
   </si>
   <si>
+    <t>t-e-l-jacks3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r441355248-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>I stayed for 2 nights in the beginning of November, while my dad and I raced at Willow Springs Raceway. The accommodations were great! The beds were comfortable, the hotel was clean and the breakfast was warm and tasty. There were places around the hotel area to get food and drinks, but we didn't have time to fully explore the surrounding areas. We will definitely be staying here again during our next race weekend.More</t>
   </si>
   <si>
+    <t>David R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r441349060-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -645,6 +702,9 @@
     <t>I felt very accommodating at this hotel. The staff was very friendly and welcoming. I stayed in a king bed studio and I enjoyed the nice home feel of the room. The room was very clean and well put together. I liked how if I wanted to buy groceries and cook, all the tools i needed were right there in the room. I only stayed there two nights on business, but the parking situation was comfortable. I would recommend this hotel to everyone. Definitely ranks among the best in the Antelope Valley area.More</t>
   </si>
   <si>
+    <t>ElaineChow123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r441021143-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>I stayed at this location for 1 night in early November 2016. I arrived around 1AM and the front door was locked (which is good for safety of the guests). I pressed the bell, after ~1 minute someone came to the front desk. I like the quick service of checking in and out. There was plenty of parking and I like that they did not charge for parking. The room was clean and everything seems like new (such has furniture, exterior, interior, etc.). The area was quiet. Overall, it was an enjoyable stay.More</t>
   </si>
   <si>
+    <t>ThomasZook</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r439826642-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>My wife and I stayed here for five nights ending tomorrow, November 25. Though it is just off SR 14 and our room was next to the elevator, the room was very quiet with drapes that cut out the light at night. The breakfast was great with oatmeal, fruit, eggs, ham &amp; sausage, bagels, muffins, juices, etc. Our room was spacious (one separate bedroom) with a couch, chair, and full kitchen. Of all the good things, the staff team is exceptional and most important to me. Donna, Asst. General Manager, was near the front desk, was very warm, very personable. Clara, the breakfast person, works her heart out and is also warm and welcoming. Brandon, evening front desk staff member, is a gentleman--courteous, kind, helpful-wonderful manner. All staff impressed me as loving their work and the guests as well. We stayed five nights and loved it.More</t>
   </si>
   <si>
+    <t>Cori808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r437286175-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -714,6 +780,9 @@
     <t>We stayed here since this was one of the hotels that were on the stay to play list for a softball tournament this past weekend.  We were disappointed that prior to checking in we called to request for early check ins for a few of our rooms. We arrived into lax at 5 am and got to the hotel by 11a.  Check in isn't till 4:00 pm which is I think a little late. After we checked in the rooms were nice and clean. And parking is very good here. It is located in a convenient location, and close to the mall and restaurants.  The pool is small, but the laundromat is great, and cost effective. Overall, we had a good experience here but think some of the day staff can be a bit friendlier. More</t>
   </si>
   <si>
+    <t>Kathy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r437196035-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>We always choose to stay at Towne Place Suites when visiting our family in Lancaster. The rooms are big and we love having a kitchenette!  Each room also has a nice desk area and great closet space!  We think it is the best value around.  The breakfasts are good and the staff is extremely accomodating.  The pool area is outside and there is even a grill and patio that guests can use for get-togethers.  All in all, a great place to stay!More</t>
   </si>
   <si>
+    <t>Andrew0715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r435718723-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>My Husband and I are working in the Lancaster area and stay at the Towne PlaceSuites weekly. Our stay has been extremely pleasant from the beautiful room full of all amenities anyone could want to the free breakfast and cordial staff. I would recommend Towne Place Suites to anyone on business or a family vacation. It is delightful.More</t>
   </si>
   <si>
+    <t>EO29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r435710165-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -771,6 +846,9 @@
     <t>The Towneplace Suites Lancaster is a very clean and modern hotel. I stayed there on the way back from a trip to the Sierras. It has all the amenities- pool, gym, outdoor seating areas, laundry. For breakfast, I had scrambled eggs, sausage, muffin, and orange juice. The room is a true suite with kitchenette and modern furniture and lighting. Friendly front desk and helpful staff. Would definitely stay there again.More</t>
   </si>
   <si>
+    <t>tankergas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r428991604-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -789,6 +867,9 @@
     <t>From a friendly greeting during check-in through quick and efficient check-out, the entire stay was quite pleasant.  Room amenities included a kitchenette with outsized refrigerator, dishes, silverware, and pull-out couch just to name a few.  The property appeared to be freshly remodeled.  I've stayed at numerous Marriott properties over the years but never a TownePlace Suite.  If this property is the standard, I'll definitely seek this brand out in the future, very good value.More</t>
   </si>
   <si>
+    <t>willetta M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r427094543-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -816,6 +897,9 @@
     <t>I stayed 5 nights at Town place Suites Lancaster &amp; enjoyed the clean &amp; well maintained property. The staff is very nice. The breakfast area had a good space and I will stay here again. I stay at Marriott properties and this is one I would recommend for comfort and the ease to locate. w mount 976811927More</t>
   </si>
   <si>
+    <t>pkiernan4453</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r426979616-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -831,6 +915,9 @@
     <t>The folks here greeted you with a smile and were very quick to get you checked in and answer any questions you have.  The lady who checked me in offered ideas and places for dinner.  I also received a phone call once in my room asking if everything was alright.More</t>
   </si>
   <si>
+    <t>Mblaca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r425040561-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -855,6 +942,9 @@
     <t>This is a fairly new property.  Our room was nice and clean with lots of space.  Good desktop work area.  Industrial strength air conditioning, needed on a hot autumn night.  Breakfast was standard fare - continental plus fried and hard boiled eggs and sausage.The property is right next to a busy freeway.  For the most part there wasn't much noticeable noise, but every now and then when a truck went by you could hear the engine noise.The only restaurant within walking distance is a Japanese place.  We stuck our heads in and left immediately.  Within a 10 minute drive there is a retail area that had a couple of decent places to eat.More</t>
   </si>
   <si>
+    <t>Rebecca Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r420559843-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -879,6 +969,9 @@
     <t>My family and I enjoyed our stay. The hotel was very clean and all staff friendly. The breakfast was fresh and plenty of seating. The room was roomy and the smell was pleasant. The hotel is well taken care of. We enjoyed the pool and the gym.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r420471273-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -894,6 +987,9 @@
     <t>Fresh and clean. Small unit but I quite enjoyed as it was well planned, excellent layout. All Staff I encountered were quite friendly .I travel 80-100 nites annually. I plan on staying here again in Nov..More</t>
   </si>
   <si>
+    <t>pdxlife475</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r420330417-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -912,6 +1008,9 @@
     <t>Rooms were great, first day we were put in 1st floor due to hotel being full. but next day when we requested to be shifted to higher floor it was quickly accommodated.Only Cons would be that breakfast had limited options and closes early around 9.More</t>
   </si>
   <si>
+    <t>SpeedyG-7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r419014777-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>The free internet is slow.  I speed tested it and it was 3-4 mbps.  You can purchase faster internet for $4 or $5 per day (sorry don't remember).  Unless you need to be in the area, it will be a bit of a drive to get to LA's typical main attractions.  Universal Studios was the main reason I went to LA and it was about a 1 hr drive to get there.  New hotel (started May, 2015 I think), huge room (with small kitchen), clean, friendly staff and good breakfast.  I used Marriott points and it was incredible value.Location can't be helped.  If it wasn't for the slow internet, I would have given hotel 5 out of 5.New strip is being built across from hotel.  Only business open is a sushi restaurant.  Outlets at Tejon is about 1 hr drive to the north.If you need to be in the area and don't mind the location, this is a great hotel to stay at.More</t>
   </si>
   <si>
+    <t>Boeing767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r415034319-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -951,6 +1053,9 @@
     <t>The TownePlace Suites is simply a poor-man's Residence Inn. There is a "kitchen" in the foyer as you enter the otherwise-standard sized hotel room. Interestingly, the closet is in the bathroom. The room was clean, amply stocked and most importantly, the service was friendly. As we were only there for 8 hours, we didn't get to sample the breakfast, but I will say that the clerk was engaged enough to let us know that if we would be leaving after 4:30 AM, that there would be to-go items available. (Alas, with a 7:00 AM flight out of LAX, we couldn't stay until 4:30). It was certainly fine for our purposes - driving a dog to a foster in Lancaster, then flying right home to Hawaii. I can't imagine that it would be as appealing for a longer stay. This seems to be the Marriott answer to the Hilton Home-2-Suites brand.More</t>
   </si>
   <si>
+    <t>Javier C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r413654120-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -969,6 +1074,9 @@
     <t>This is a nice quaint hotel if you're in the Palmdale area.  It is new (built in 2014) so it still looks and feels new.  The staff was very welcoming and friendly.  The rooms were clean, comfortable and everything was in working order.  We really liked the outdoor barbeque area.  Breakfast in the morning was great and this is a hotel I would certainly stay at again in the future when I'm in the area.More</t>
   </si>
   <si>
+    <t>FraserD1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r406867074-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -987,6 +1095,9 @@
     <t>The hotel is relatively new and the rooms therefore are in excellent condition.  We had a double Queen which was fairly large with its own kitchenette including full size fridge freezer.  All the staff we meet were friendly and welcoming.  Breakfast was better than expected and comprised cereal, oatmeal, fruit, waffles, breads, muffins, bagles, boiled eggs.  Hot items included pork and vegetarian sausage, Canadian Bacon and fried eggs.    There is a Japanese restaurant adjacent to the hotel car park and several fast food joints and a Walmart within a 5 min drive. We stayed here on a Marriott redemption rate and would have no hesitation booking this hotel again when in the area. More</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r403872336-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1005,6 +1116,9 @@
     <t>It's great to have accommodations like home while traveling for work. The full kitchen - even a dishwasher! - saved me a ton of money by not eating out every day. The bbq area near the pool is a nice touch, too. Great breakfast in the lobby, &amp; the staff was very helpful. One gentleman helped me find a route to go for a run; he even had maps printed out. I will definitely stay here again next time I'm in town. More</t>
   </si>
   <si>
+    <t>Bill C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r403054713-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1050,6 +1164,9 @@
     <t>We stayed here in May while visiting family members in the area. It was truly our home away from home. Isabella was efficient in checking us in and everyone was so friendly. The bed is absolutely comfy and for us the room was noise free and it was dark for a good night sleep. Breakfast in the morning is quick food, fried eggs, sausage patties, bagels and toast...but good. We will definitely stay again when visiting family in Lancaster. More</t>
   </si>
   <si>
+    <t>lolo_pastouche</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r370015818-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1065,6 +1182,9 @@
     <t xml:space="preserve">Stayed here on a California road trip. We were tired after a 6 hour drive and booked here using points. We weren't expecting much since it was a cat 1 Marriott property and our first time in a Towneplace Suites, but it was surprisingly very accommodating. Free breakfast and parking included make this very good value when redeeming points. I would also stay if the rates aren't that high.Only think I did not like is the isolated handicapped room we received on the first room. The hotel was sold out that night, but gold members should be prioritized over standard guests, even when booking with points. </t>
   </si>
   <si>
+    <t>BlackberryBoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r358778572-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1092,6 +1212,9 @@
     <t>This was our first time at a Town Place Suites and overall I enjoyed the set up.  Our studio room was quite spacious with two queen beds, a sofa and a small kitchen. The bathroom was a decent size and had a huge closet!I would have liked to have had a few more dishes in the kitchen  (there was exactly 4 of of everything). There were 4 of us and we were constantly needing to wash dishes!  Also, they didn't have wine glasses which would have been nice. Breakfast was okay with fried eggs (kind of rubbery), sausages, breads and waffles. coffee wasn't the best. The breakfast attendant was really friendly and would bring out more food if they were out,  you just need to ask. I should always note that the breakafast room was really nice.They had a nice outside patio with a fireplace and two high end grills which we used a couple of time and appreciated. Being in California we were anxious to use the pool,  it was probably the most disappointing aspect of the trip.  The pool was quite small and right next to the parking lot, the addition of some plants would make wonders for the atmosphere.  Although heated, it was pretty darn chilly in March.  There's just the pool, not the hot tub. Over all I liked this property and would certainly stay again.More</t>
   </si>
   <si>
+    <t>tangojohnDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r335312109-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1119,6 +1242,9 @@
     <t>This is a new property with small but very well designed rooms.  We stayed Christmas night and was greeted by a very helpful young man.  He was able to answer our many questions about the area and gave us great directions.  The next morning the young lady working the front desk went into the breakfast area asking if anyone needed anything.  I had never seen anyone in a hotel do this and I think everyone appreciated it.I can tell they have a very good employee in her.  Even the housekeeping staff spoke to us in a very friendly manor.I have spent over 75 nights in hotels this year and I think overall the personel here are the best I have encountered.Nice breakfast including turkey sausage and eggs.  Good coffee.More</t>
   </si>
   <si>
+    <t>Leosha C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r333533326-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1143,6 +1269,9 @@
     <t>We recently visited family in Lancaster and stayed, for a second time, at TownePlace Suites Lancaster.  It is, by far, the best value for your money.  I would even say that you get more amenities for your money.  The Suites are equipped better than any other Brand Name Suites we have stayed in the past.  We had a 2 bed Queen suite with a sofa bed, a mini kitchen with refrigerator, dishwasher, and a 2 burner stovetop, microwave, and a garbage disposal. They serve breakfast from 5:00am to 9:00am during week and there are a variety of foods.  Also Ms Claire, who prepare food, is the sweetest and nicest person you could ever meet.  She will make sure you have enough to eat.  The Front Desk staff is very friendly.  Always willing to help.  The Housekeeping staff is outstanding.  Our Suite was always cleaned to perfection.  We never had a problem in that area.  The Ladies work hard to make sure your Suite is as though the first day you walked in.  I could go on and on, but running out of space.  We have nicknamed TownePlace Suites, "Our Home Away From Home".More</t>
   </si>
   <si>
+    <t>SD O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r323742253-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1170,6 +1299,9 @@
     <t>We were there for my kids sporting events and they were very accommodating with our requests! The rooms were above average in size and clean and having Direct TV as their cable service was pretty cool also. The staff were really nice and would stay there again if in the area.More</t>
   </si>
   <si>
+    <t>BWhe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r299352612-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1195,6 +1327,9 @@
   </si>
   <si>
     <t>This is now my favorite in Lancaster, CA. The hotel  with all its amenities is exceptional. The BBQ and sitting area was most comfortable and the pool incredible. Staff is very pleasant and helpful. Now, about the bed, pillows and towels!? Marriott quality! The best. Overall my 2 nights at this location were incredible.More</t>
+  </si>
+  <si>
+    <t>LoggingMoreMiles</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r290163801-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
@@ -1228,6 +1363,9 @@
 I had a medical issue during my second week at the hotel and the GM, Randy, offered to drive me to the ER at 5:30 in the morning.  Luckily all was OK, but I had to cut my trip short.   About a week after I was home Manager Michelle emailed me saying she and Randy were both thinking of me and hoped everything was going well.  Randy and Michelle run not only a new and clean property but also one where people actually CARE and are kind.  I appreciated their concern both while I was there and...I travel 50% of the time for business and am very selective when it comes to choosing a hotel.  I check Trip Advisor reviews and research hotels before deciding to book my stay.  I also typically stay loyal to another brand of hotels, but have had some good experiences with newer Marriott branded properties.  So, I decided I would try the TownePlace Suites in Lancaster since it was a new propery, I liked the photos, and it had good reviews.I had an excellent stay during both of my trips to Lancaster in June.  The room was modern, neat, and quiet, and the staff members were very welcoming and friendly.  I wanted to cook on the exceptionally clean gas grills when I was there but didn't have a chance to do so.  However, several other guests were cooking steaks and they smelled delicious!  I had a medical issue during my second week at the hotel and the GM, Randy, offered to drive me to the ER at 5:30 in the morning.  Luckily all was OK, but I had to cut my trip short.   About a week after I was home Manager Michelle emailed me saying she and Randy were both thinking of me and hoped everything was going well.  Randy and Michelle run not only a new and clean property but also one where people actually CARE and are kind.  I appreciated their concern both while I was there and after I arrived home in Colorado.The TownePlace Suites in Lancaster is the only place to stay if you find yourself having to venture over to the desert areas of Palmdale and Lancaster.More</t>
   </si>
   <si>
+    <t>ReadMoBks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r285118529-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1255,6 +1393,9 @@
     <t>Out in the Mojave Desert, the town of Lancaster, CA offers a very comfortable hotel. Townplace Suites, a Marriott property, seems designed for business men, but would be great for a family. The rooms are large with two queens, a couch, a dining table, and a fully equipped kitchen. The staff is terrific and always helpful! The pool and workout room are convenient. Definitely two thumbs up!More</t>
   </si>
   <si>
+    <t>imusmg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r267465569-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1282,6 +1423,9 @@
     <t>I felt compelled to write this review after I read the review of george h on april 21. I too was in town for a soccer tournament and stayed at the towneplace suites. The staff at the hotel were incredibly friendly and couldn't be more helpful. After watching one individual, who in my opinion was george h after reading his review, scream at and totally belittle the front desk staff due to the fact his room type was changed, the front desk staff was incredible handling the individual's situation in a calm and professional manner. I watched as the man and who I could only assume was his wife, embarrassed themselves as well as their children with their display at the front desk, while the whole time the staff tried their hardest to explain what happened and why it happened, the two would not allow the staff one second to speak. I recognize this situation due to the fact that the man constantly used the term bait and switch with the staff, which is the term george h used in his review as well as the fact that he made sure everyone in the lobby was aware he would be posting his review on every website he could find. Had I been a staff member, I'm not sure I could have remained as cool headed as they did, especially with the personal attacks and insults being used. As a frequent...I felt compelled to write this review after I read the review of george h on april 21. I too was in town for a soccer tournament and stayed at the towneplace suites. The staff at the hotel were incredibly friendly and couldn't be more helpful. After watching one individual, who in my opinion was george h after reading his review, scream at and totally belittle the front desk staff due to the fact his room type was changed, the front desk staff was incredible handling the individual's situation in a calm and professional manner. I watched as the man and who I could only assume was his wife, embarrassed themselves as well as their children with their display at the front desk, while the whole time the staff tried their hardest to explain what happened and why it happened, the two would not allow the staff one second to speak. I recognize this situation due to the fact that the man constantly used the term bait and switch with the staff, which is the term george h used in his review as well as the fact that he made sure everyone in the lobby was aware he would be posting his review on every website he could find. Had I been a staff member, I'm not sure I could have remained as cool headed as they did, especially with the personal attacks and insults being used. As a frequent traveler, I too have had rooms I reserved changed upon my arrival. I realize this is part of the hotel business, and it sure isn't bait and switch. It's just like being bumped from a flight by an airline, while I agree it can be upsetting, it is not a life and death situation. It is a hotel room, and nothing more. If I was that unhappy with a hotel, I pray I would be mature enough to simply leave the hotel and make alternate arrangements.More</t>
   </si>
   <si>
+    <t>George H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r267031410-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1300,6 +1444,9 @@
     <t>My family of four booked a two bedroom suite for a soccer tournament.  Prior to our arrival the sales manager changes our reservation to a studio without telling us.  The clerk did not inform us of the change at check in.  We had to wait until we trekked our luggage to the room.  The assistant manager was no help at all.  To make matters worse, the assistant manager told us we had a one bedroom.  It wasn't ---our receipt clearly shows that we had a studio.  The assistant manager at first told us there were other rooms, but when we asked for one she said No.  She did give us a $10 break off the price for a studio.  By the way, the hotel website said that the maximum occupancy for our room was three --we were four.The staff of this hotel doesn't understand how to run the hotel.  This was a bait and switch,  pure and simple.  If you can't count on a reservation - you can't count on the hotel.More</t>
   </si>
   <si>
+    <t>SDTravelgurl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r262235720-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1327,6 +1474,9 @@
     <t>The employee who checked us in was great!  When I walked in he said, "I just made your keys!"  Fantastic!  Took me less than 5 mins at the counter. Rooms are spacious - the room with 2 queens is bigger than the room with the king bed. LOVE the mini kitchen - it has an actual full size refrigerator!  This is a good stop over hotel. Small pool, no hot tub/ jacuzzi.  Not a resort destination but I don't believe that was the plan from the design.  Clean, new, conveniently located off of the freeway.  Paul Mitchell products are a nice touch. We are here for a soccer tournament and we will definitely stay here again.More</t>
   </si>
   <si>
+    <t>DeanNPooh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r239405324-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1342,6 +1492,9 @@
     <t xml:space="preserve">My family and I loved it here.  We were comfortable and the entire staff was great!!  The complimentary breakfast was great. Housekeeping was nice and family friendly. The front desk staff was very attentive and caring. We will definitely stay again. </t>
   </si>
   <si>
+    <t>G G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r232310732-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1363,6 +1516,9 @@
     <t>New hotel...need I say more?  I stayed here on business for a few days and really enjoyed my visit.  This hotel is just off Hwy 14 with easy access to Palmdale, Edwards AFB and other locations both north and south.  I found the rooms to be quite nice with a great desk area, a small kitchen and really nice HD Direct TV.  My only concern was no luggage rack in the room which causes you to place your suitcase on the floor or on the sofa and I'm not sure why they would want guests to place dirty luggage anywhere but on a luggage rack.  The breakfast and coffee were great and the staff was friendly, overall it is a nice hotel.More</t>
   </si>
   <si>
+    <t>loralee o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r227925892-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1379,6 +1535,9 @@
   </si>
   <si>
     <t>August 2014</t>
+  </si>
+  <si>
+    <t>Michael S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r211181497-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
@@ -1420,6 +1579,9 @@
 8. Diverse staff from the maids to the clerks.
 9. Right next to the 14 freeway and a stones throw from eating areas around the Palmdale Mall.
 10.Personal communique's are a real plus; I slept through the maid service on purpose but they were kind enough to not only call and...I was able to extend a business trip in Orange County into a weekend trip spending time with my Dad and stepmom in Lancaster, CA and was very excited to have booked this brand new hotel that opened May 20, 2014!  Excellent property with outstanding employees.  I stayed in the studio king (see the attached photos).  There are several reasons why this place is excellent:1. The place smells brand new....even better than a new car!2. All of the clerks I've run into are super friendly and eager to please; their excellent service outweighs some of the inconveniences of a new place such as some things not working properly (like the front door key card lock late at night).3. Primo showers and sinks with excellent water pressure and temperature.4. Brand new appliances and an adequately stocked kitchen (whatever they do not have the clerks will provide for you).5. Brand new StarTrac workout equipment in their gym and a brand-new and crystal clear pool.6. Excellent lighting from the rooms to the lobby and check in area.7. Firm beds, beautiful pillows and excellent work desk.8. Diverse staff from the maids to the clerks.9. Right next to the 14 freeway and a stones throw from eating areas around the Palmdale Mall.10.Personal communique's are a real plus; I slept through the maid service on purpose but they were kind enough to not only call and notify me about why the room was not cleaned but left a note.  Nice touch and I've stayed at enough places (many Choice Hotels for example) that  don't bother to communicate with guests in instances like this.11.Less expensive than all the Marriott properties that tend to be overpriced here in the Antelope Valley (Springhill Suites [Lancaster], Residence Inn [Palmdale], Courtyard [Palmdale]).Very small drawbacks (the elevator is super-duper slow &amp; the kitchen sink drains super duper slowly).Enjoy the photos, this will be my go to place provided they stay price competitive with the other Marriott properties in the area, the Hampton Inn in Palmdale, and the very nice Holiday Inn Properties in Palmdale.More</t>
+  </si>
+  <si>
+    <t>Rose L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d6510508-r209940485-TownePlace_Suites_Lancaster-Lancaster_California.html</t>
@@ -1948,43 +2110,47 @@
       <c r="A2" t="n">
         <v>62896</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1996,56 +2162,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>62896</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2063,56 +2233,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>62896</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2126,56 +2300,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>62896</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2193,56 +2371,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>62896</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2254,56 +2436,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>62896</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2315,56 +2501,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>62896</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2382,56 +2572,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>62896</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2449,56 +2643,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>62896</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2516,56 +2714,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>62896</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2583,56 +2785,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>62896</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2650,56 +2856,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>62896</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2717,56 +2927,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>62896</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2784,56 +2998,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>62896</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2851,56 +3069,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>62896</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2916,56 +3138,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>62896</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2977,56 +3203,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>62896</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3038,56 +3268,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>62896</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3105,56 +3339,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>62896</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3170,56 +3408,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>62896</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3235,56 +3477,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>62896</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>211</v>
       </c>
-      <c r="K22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L22" t="s">
-        <v>213</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>194</v>
-      </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3300,56 +3546,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>62896</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3367,56 +3617,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>62896</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3428,56 +3682,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>62896</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3495,56 +3753,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>62896</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3560,56 +3822,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X26" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>62896</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3627,56 +3893,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>62896</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3692,56 +3962,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>62896</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>283</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3757,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>62896</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3824,56 +4102,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>62896</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3891,56 +4173,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="X31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="Y31" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>62896</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3958,56 +4244,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>62896</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
+        <v>320</v>
+      </c>
+      <c r="L33" t="s">
+        <v>321</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>289</v>
       </c>
-      <c r="L33" t="s">
-        <v>290</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>262</v>
-      </c>
       <c r="O33" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4019,56 +4309,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>62896</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4086,56 +4380,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X34" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>62896</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4153,56 +4451,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X35" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>62896</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4218,56 +4520,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X36" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>62896</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4285,56 +4591,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X37" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>62896</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4346,56 +4656,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X38" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>62896</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>359</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4407,56 +4721,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>62896</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K40" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L40" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4474,56 +4792,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X40" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y40" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>62896</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="K41" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4535,56 +4857,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="X41" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="Y41" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>62896</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="K42" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4598,50 +4924,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>62896</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4653,56 +4983,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="X43" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>62896</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -4718,56 +5052,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="X44" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>62896</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>408</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4785,56 +5123,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="X45" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="Y45" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>62896</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>417</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="K46" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4846,56 +5188,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="X46" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="Y46" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>62896</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>427</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="J47" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="K47" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4911,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X47" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y47" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>62896</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>437</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J48" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K48" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4976,56 +5326,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="X48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>62896</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="J49" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5037,56 +5391,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="X49" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>62896</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>457</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5098,56 +5456,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="X50" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>62896</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>467</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="J51" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="K51" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="L51" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5167,50 +5529,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>62896</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>474</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="J52" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="K52" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="L52" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5222,47 +5588,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="X52" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="Y52" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>62896</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>484</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="J53" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="L53" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5291,50 +5661,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>62896</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>490</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="J54" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="K54" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="L54" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="O54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5348,50 +5722,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>62896</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="J55" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5409,50 +5787,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>62896</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>505</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5476,50 +5858,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>62896</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>513</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="J57" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="K57" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="L57" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5531,13 +5917,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="X57" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="Y57" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
